--- a/biology/Écologie/Institut_Michel-Serres/Institut_Michel-Serres.xlsx
+++ b/biology/Écologie/Institut_Michel-Serres/Institut_Michel-Serres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut Michel-Serres est un institut interdisciplinaire de recherche et de réflexion sur les ressources et les biens communs, fondé en 2012 à Lyon sous le parrainage du philosophe et épistémologue Michel Serres. 
 L'institut est implanté à Lyon, où il bénéficie d'un partenariat privilégié avec l'École normale supérieure de Lyon.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'institut est né en 2012 de la volonté de chercheurs de différents domaines (biologie, philosophie, écologie, géographie, sociologie...) de travailler ensemble au sein d'un institut d'écologie pluridisciplinaire d’envergure internationale autour des deux thèmes cruciaux de ressources et de biens communs[1]. L'idée de cet institut germa suite à l'organisation d'un grand  colloque international sur le thème des ressources à l'ENS Lyon  en mai 2011 qui compta notamment la présence de Michel Serres. Un an plus tard, l'institut était inauguré et prit le nom du philosophe et académicien qui en devint le parrain (honorary fellow) ; le colloque inaugural eut lieu les 27 et 28 septembre 2012.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'institut est né en 2012 de la volonté de chercheurs de différents domaines (biologie, philosophie, écologie, géographie, sociologie...) de travailler ensemble au sein d'un institut d'écologie pluridisciplinaire d’envergure internationale autour des deux thèmes cruciaux de ressources et de biens communs. L'idée de cet institut germa suite à l'organisation d'un grand  colloque international sur le thème des ressources à l'ENS Lyon  en mai 2011 qui compta notamment la présence de Michel Serres. Un an plus tard, l'institut était inauguré et prit le nom du philosophe et académicien qui en devint le parrain (honorary fellow) ; le colloque inaugural eut lieu les 27 et 28 septembre 2012.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Buts et missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon son site officiel[2], la mission principale de l'institut est d'« accroitre la compréhension humaine des ressources naturelles et en concevoir une utilisation efficace et responsable pour le bien de tous. L"institut se donne pour mission de travailler à améliorer l’état durable de nos sociétés par l’analyse, la surveillance et la gestion intégrées des ressources (production, distribution, accès et circulation) ».  La démarche scientifique que revendique l'Institut est d’apporter une cohérence globale dans la compréhension de l’enjeu des ressources. Son ambition est d'être un acteur dont l'utilité et l'originalité seraient de fédérer et de croiser les différentes approches scientifiques sur ce thème central des ressources.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon son site officiel, la mission principale de l'institut est d'« accroitre la compréhension humaine des ressources naturelles et en concevoir une utilisation efficace et responsable pour le bien de tous. L"institut se donne pour mission de travailler à améliorer l’état durable de nos sociétés par l’analyse, la surveillance et la gestion intégrées des ressources (production, distribution, accès et circulation) ».  La démarche scientifique que revendique l'Institut est d’apporter une cohérence globale dans la compréhension de l’enjeu des ressources. Son ambition est d'être un acteur dont l'utilité et l'originalité seraient de fédérer et de croiser les différentes approches scientifiques sur ce thème central des ressources.
 Le constat de base du travail de l'institut est le suivant : « The historical foundations and challenges of human history are largely about our contrasting relationship to natural resources. Taking this into account first is a condition in properly addressing other critical issues, such as climate deregulation, biodiversity, poverty, demography » (« Les fondements historiques et les enjeux de l'histoire humaine sont intrinsèquement liés à notre rapport complexe aux ressources naturelles. Avoir conscience de ce fait est la condition nécessaire au traitement des autres problèmes majeurs, comme le dérèglement climatique, la crise de la biodiversité, la pauvreté ou la démographie »).
 Sur ces bases, l'Institut se donne trois grandes missions : 
 « On ne gère bien que ce que l’on comprend bien »
@@ -582,7 +598,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parrain : Michel Serres. 
 Membres fondateurs : Olivier Faron (historien, directeur général de l'ENS Lyon), Ioan Negrutiu (professeur de biologie, ENS Lyon), Wendy Leeds-Hurwitz (professeure de communication, université du Wisconsin), Michel Morvan (professeur d'informatique, directeur honoraire de l'institut d'étude des systèmes complexes), Violette Rey (professeure de géographie, ENS de Lyon).
@@ -616,7 +634,9 @@
           <t>Partenaires fondateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le Center for Ecological and Evolutionary Synthesis (CEES), dirigé par le professeur Nils C. Stenseth, université d'Oslo, Norvège ;
 Le programme européen de recherche en droit « Lascaux » dirigé par le professeur François Collart Dutilleul, université de Nantes) ;
